--- a/public/assets/result/Latifah_2.xlsx
+++ b/public/assets/result/Latifah_2.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="52">
   <si>
     <t>REPUBLIK INDONESIA</t>
   </si>
@@ -169,13 +169,10 @@
     <t>PML</t>
   </si>
   <si>
-    <t>s</t>
-  </si>
-  <si>
     <t>WAHYU RAZI INDRAWAN</t>
   </si>
   <si>
-    <t>ATMUJI</t>
+    <t>LATIFAH</t>
   </si>
 </sst>
 </file>
@@ -928,19 +925,19 @@
         <v>24</v>
       </c>
       <c r="I13" s="5">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="J13" s="5">
-        <v>47</v>
+        <v>1</v>
       </c>
       <c r="K13" s="5">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="L13" s="5">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="M13" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N13"/>
     </row>
@@ -965,16 +962,16 @@
         <v>24</v>
       </c>
       <c r="I14" s="5">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="J14" s="5">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="K14" s="5">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="L14" s="5">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="M14" s="5">
         <v>2</v>
@@ -1002,16 +999,16 @@
         <v>26</v>
       </c>
       <c r="I15" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J15" s="5">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="K15" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L15" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M15" s="5">
         <v>2</v>
@@ -1039,16 +1036,16 @@
         <v>29</v>
       </c>
       <c r="I16" s="5">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="J16" s="5">
-        <v>86</v>
+        <v>43</v>
       </c>
       <c r="K16" s="5">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="L16" s="5">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="M16" s="5">
         <v>2</v>
@@ -1076,19 +1073,19 @@
         <v>24</v>
       </c>
       <c r="I17" s="5">
-        <v>61</v>
+        <v>6</v>
       </c>
       <c r="J17" s="5">
-        <v>97</v>
+        <v>10</v>
       </c>
       <c r="K17" s="5">
-        <v>65</v>
+        <v>7</v>
       </c>
       <c r="L17" s="5">
-        <v>64</v>
+        <v>7</v>
       </c>
       <c r="M17" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N17"/>
     </row>
@@ -1150,16 +1147,16 @@
         <v>34</v>
       </c>
       <c r="I19" s="5">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="J19" s="5">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="K19" s="5">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="L19" s="5">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="M19" s="5">
         <v>2</v>
@@ -1187,16 +1184,16 @@
         <v>29</v>
       </c>
       <c r="I20" s="5">
-        <v>41</v>
+        <v>8</v>
       </c>
       <c r="J20" s="5">
-        <v>68</v>
+        <v>14</v>
       </c>
       <c r="K20" s="5">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="L20" s="5">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="M20" s="5">
         <v>2</v>
@@ -1224,16 +1221,16 @@
         <v>31</v>
       </c>
       <c r="I21" s="5">
-        <v>44</v>
+        <v>2</v>
       </c>
       <c r="J21" s="5">
-        <v>73</v>
+        <v>4</v>
       </c>
       <c r="K21" s="5">
-        <v>47</v>
+        <v>3</v>
       </c>
       <c r="L21" s="5">
-        <v>47</v>
+        <v>3</v>
       </c>
       <c r="M21" s="5">
         <v>2</v>
@@ -1298,19 +1295,19 @@
         <v>29</v>
       </c>
       <c r="I23" s="5">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="J23" s="5">
-        <v>63</v>
+        <v>11</v>
       </c>
       <c r="K23" s="5">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="L23" s="5">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="M23" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N23"/>
     </row>
@@ -1372,16 +1369,16 @@
         <v>42</v>
       </c>
       <c r="I25" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J25" s="5">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="K25" s="5">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="L25" s="5">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M25" s="5">
         <v>2</v>
@@ -1409,16 +1406,16 @@
         <v>34</v>
       </c>
       <c r="I26" s="5">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="J26" s="5">
-        <v>46</v>
+        <v>4</v>
       </c>
       <c r="K26" s="5">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="L26" s="5">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="M26" s="5">
         <v>2</v>
@@ -1446,16 +1443,16 @@
         <v>26</v>
       </c>
       <c r="I27" s="5">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="J27" s="5">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="K27" s="5">
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="L27" s="5">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="M27" s="5">
         <v>2</v>
@@ -1483,16 +1480,16 @@
         <v>24</v>
       </c>
       <c r="I28" s="5">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="J28" s="5">
-        <v>63</v>
+        <v>7</v>
       </c>
       <c r="K28" s="5">
-        <v>37</v>
+        <v>4</v>
       </c>
       <c r="L28" s="5">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="M28" s="5">
         <v>2</v>
@@ -1520,16 +1517,16 @@
         <v>42</v>
       </c>
       <c r="I29" s="5">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="J29" s="5">
-        <v>85</v>
+        <v>22</v>
       </c>
       <c r="K29" s="5">
-        <v>46</v>
+        <v>9</v>
       </c>
       <c r="L29" s="5">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="M29" s="5">
         <v>2</v>
@@ -1581,9 +1578,7 @@
       <c r="N34" s="1"/>
     </row>
     <row r="35" spans="1:14">
-      <c r="K35" s="4" t="s">
-        <v>50</v>
-      </c>
+      <c r="K35" s="4"/>
       <c r="L35" s="4"/>
       <c r="N35" s="1"/>
     </row>
@@ -1599,10 +1594,10 @@
     </row>
     <row r="38" spans="1:14">
       <c r="D38" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="K38" s="4" t="s">
         <v>51</v>
-      </c>
-      <c r="K38" s="4" t="s">
-        <v>52</v>
       </c>
       <c r="L38" s="4"/>
       <c r="N38" s="1"/>
